--- a/data/tuba/1st harvest Pennycress VFA Data.xlsx
+++ b/data/tuba/1st harvest Pennycress VFA Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://illinoisstateuniversity-my.sharepoint.com/personal/tylubna_ilstu_edu/Documents/Desktop/VFA(final)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wlperry/Documents/r_projects/r_class_2024/data/tuba/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="11_F25DC773A252ABDACC1048C5599D685A5ADE58F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FF89E03-B989-4851-9030-1E6CF82AB434}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4BF3F5-3866-3C47-A1FB-1DB7E46A7B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40080" yWindow="-10740" windowWidth="13900" windowHeight="20180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -243,11 +243,11 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -533,26 +533,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:Q94"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.1796875" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
-    <col min="16" max="16" width="11.6328125" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="O3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>0</v>
@@ -601,11 +601,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -648,9 +648,9 @@
         <v>39.818174538511045</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
@@ -691,9 +691,9 @@
         <v>6.7317704984949867</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
@@ -734,9 +734,9 @@
         <v>49.665778773705135</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
       <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
@@ -768,7 +768,7 @@
         <f t="shared" si="0"/>
         <v>1.2403780612065634E-3</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="2">
         <f t="shared" si="1"/>
         <v>1.5039101437361494E-5</v>
       </c>
@@ -777,9 +777,9 @@
         <v>0.89776687813123857</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
       <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
@@ -829,9 +829,9 @@
         <v>2.8865093111576021</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -865,9 +865,9 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
       <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
@@ -899,9 +899,9 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
       <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
@@ -933,9 +933,9 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
       <c r="C13" s="1" t="s">
         <v>19</v>
       </c>
@@ -967,9 +967,9 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>20</v>
       </c>
@@ -1010,9 +1010,9 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2" t="s">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1046,9 +1046,9 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
       <c r="C16" s="1" t="s">
         <v>17</v>
       </c>
@@ -1080,9 +1080,9 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
       <c r="C17" s="1" t="s">
         <v>18</v>
       </c>
@@ -1114,9 +1114,9 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>19</v>
       </c>
@@ -1148,9 +1148,9 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
       <c r="C19" s="1" t="s">
         <v>20</v>
       </c>
@@ -1177,7 +1177,7 @@
         <f t="shared" si="5"/>
         <v>5089.2400000000007</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="3">
         <f>AVERAGE(J9,J14,J18:J19,J24,J29,J34)</f>
         <v>5120.1116666666667</v>
       </c>
@@ -1189,7 +1189,7 @@
         <f>SUM(L15:L19)</f>
         <v>0.13732954991040372</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="3">
         <f>AVERAGE(M9,M14,M18:M19,M24,M29,M34)</f>
         <v>0.13816260004919012</v>
       </c>
@@ -1197,9 +1197,9 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2" t="s">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1228,7 +1228,7 @@
         <v>5.256405607673658E-2</v>
       </c>
       <c r="M20" s="1"/>
-      <c r="N20" s="4">
+      <c r="N20" s="3">
         <f>STDEV(M9,M14,M19,M24,M29,M34)/6^0.5</f>
         <v>5.0483660975761246E-3</v>
       </c>
@@ -1236,9 +1236,9 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
       <c r="C21" s="1" t="s">
         <v>17</v>
       </c>
@@ -1270,9 +1270,9 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
       <c r="C22" s="1" t="s">
         <v>18</v>
       </c>
@@ -1304,9 +1304,9 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
       <c r="C23" s="1" t="s">
         <v>19</v>
       </c>
@@ -1338,9 +1338,9 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
       <c r="C24" s="1" t="s">
         <v>20</v>
       </c>
@@ -1381,9 +1381,9 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2" t="s">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1417,9 +1417,9 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
       <c r="C26" s="1" t="s">
         <v>17</v>
       </c>
@@ -1451,9 +1451,9 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
       <c r="C27" s="1" t="s">
         <v>18</v>
       </c>
@@ -1485,9 +1485,9 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
       <c r="C28" s="1" t="s">
         <v>19</v>
       </c>
@@ -1519,9 +1519,9 @@
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
       <c r="C29" s="1" t="s">
         <v>20</v>
       </c>
@@ -1562,9 +1562,9 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2" t="s">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -1598,9 +1598,9 @@
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
       <c r="C31" s="1" t="s">
         <v>17</v>
       </c>
@@ -1632,9 +1632,9 @@
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
       <c r="C32" s="1" t="s">
         <v>18</v>
       </c>
@@ -1666,9 +1666,9 @@
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
       <c r="C33" s="1" t="s">
         <v>19</v>
       </c>
@@ -1700,9 +1700,9 @@
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
       <c r="C34" s="1" t="s">
         <v>20</v>
       </c>
@@ -1743,11 +1743,11 @@
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -1790,9 +1790,9 @@
         <v>67.517801188689944</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
       <c r="C36" s="1" t="s">
         <v>17</v>
       </c>
@@ -1833,9 +1833,9 @@
         <v>5.7740534751419581</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
       <c r="C37" s="1" t="s">
         <v>18</v>
       </c>
@@ -1876,9 +1876,9 @@
         <v>17.884587855427309</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
       <c r="C38" s="1" t="s">
         <v>19</v>
       </c>
@@ -1919,9 +1919,9 @@
         <v>1.5793882647353545</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
       <c r="C39" s="1" t="s">
         <v>20</v>
       </c>
@@ -1971,9 +1971,9 @@
         <v>7.244169216005429</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2" t="s">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -2007,9 +2007,9 @@
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
       <c r="C41" s="1" t="s">
         <v>17</v>
       </c>
@@ -2041,9 +2041,9 @@
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
       <c r="C42" s="1" t="s">
         <v>18</v>
       </c>
@@ -2075,9 +2075,9 @@
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
       <c r="C43" s="1" t="s">
         <v>19</v>
       </c>
@@ -2109,9 +2109,9 @@
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
       <c r="C44" s="1" t="s">
         <v>20</v>
       </c>
@@ -2152,9 +2152,9 @@
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2" t="s">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -2188,9 +2188,9 @@
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
       <c r="C46" s="1" t="s">
         <v>17</v>
       </c>
@@ -2222,9 +2222,9 @@
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
       <c r="C47" s="1" t="s">
         <v>18</v>
       </c>
@@ -2256,9 +2256,9 @@
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
       <c r="C48" s="1" t="s">
         <v>19</v>
       </c>
@@ -2290,9 +2290,9 @@
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
       <c r="C49" s="1" t="s">
         <v>20</v>
       </c>
@@ -2319,7 +2319,7 @@
         <f t="shared" si="5"/>
         <v>1635.83</v>
       </c>
-      <c r="K49" s="4">
+      <c r="K49" s="3">
         <f>AVERAGE(J39,J44,J49,J54,J59,J64)</f>
         <v>1571.7583333333332</v>
       </c>
@@ -2331,7 +2331,7 @@
         <f>SUM(L45:L49)</f>
         <v>4.4710498996990963E-2</v>
       </c>
-      <c r="N49" s="4">
+      <c r="N49" s="3">
         <f>AVERAGE(M39,M44,M49,M54,M59,M64)</f>
         <v>4.2959292460715483E-2</v>
       </c>
@@ -2339,9 +2339,9 @@
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2" t="s">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -2370,7 +2370,7 @@
         <v>2.8982301905717149E-2</v>
       </c>
       <c r="M50" s="1"/>
-      <c r="N50" s="4">
+      <c r="N50" s="3">
         <f>STDEV(M39,M44,M49,M54,M59,M64)/6^0.5</f>
         <v>1.3066982525108521E-3</v>
       </c>
@@ -2378,9 +2378,9 @@
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
       <c r="C51" s="1" t="s">
         <v>17</v>
       </c>
@@ -2412,9 +2412,9 @@
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
       <c r="C52" s="1" t="s">
         <v>18</v>
       </c>
@@ -2446,9 +2446,9 @@
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
       <c r="C53" s="1" t="s">
         <v>19</v>
       </c>
@@ -2480,9 +2480,9 @@
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
       <c r="C54" s="1" t="s">
         <v>20</v>
       </c>
@@ -2523,9 +2523,9 @@
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2" t="s">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -2559,9 +2559,9 @@
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
       <c r="C56" s="1" t="s">
         <v>17</v>
       </c>
@@ -2593,9 +2593,9 @@
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
       <c r="C57" s="1" t="s">
         <v>18</v>
       </c>
@@ -2627,9 +2627,9 @@
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
       <c r="C58" s="1" t="s">
         <v>19</v>
       </c>
@@ -2661,9 +2661,9 @@
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
       <c r="C59" s="1" t="s">
         <v>20</v>
       </c>
@@ -2704,9 +2704,9 @@
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2" t="s">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -2740,9 +2740,9 @@
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
       <c r="C61" s="1" t="s">
         <v>17</v>
       </c>
@@ -2774,9 +2774,9 @@
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
       <c r="C62" s="1" t="s">
         <v>18</v>
       </c>
@@ -2808,9 +2808,9 @@
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
       <c r="C63" s="1" t="s">
         <v>19</v>
       </c>
@@ -2842,9 +2842,9 @@
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2885,11 +2885,11 @@
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A65" s="2" t="s">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -2932,9 +2932,9 @@
         <v>55.338707189971394</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
       <c r="C66" s="1" t="s">
         <v>17</v>
       </c>
@@ -2975,9 +2975,9 @@
         <v>1.974133898770859</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
       <c r="C67" s="1" t="s">
         <v>18</v>
       </c>
@@ -3018,9 +3018,9 @@
         <v>38.710807519168242</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
       <c r="C68" s="1" t="s">
         <v>19</v>
       </c>
@@ -3061,9 +3061,9 @@
         <v>1.3688610372969174</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
       <c r="C69" s="1" t="s">
         <v>20</v>
       </c>
@@ -3113,9 +3113,9 @@
         <v>2.6074903547925845</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2" t="s">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -3149,9 +3149,9 @@
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
       <c r="C71" s="1" t="s">
         <v>17</v>
       </c>
@@ -3183,9 +3183,9 @@
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
       <c r="C72" s="1" t="s">
         <v>18</v>
       </c>
@@ -3217,9 +3217,9 @@
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
       <c r="C73" s="1" t="s">
         <v>19</v>
       </c>
@@ -3251,9 +3251,9 @@
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
       <c r="C74" s="1" t="s">
         <v>20</v>
       </c>
@@ -3294,9 +3294,9 @@
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2" t="s">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C75" s="1" t="s">
@@ -3330,9 +3330,9 @@
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
       <c r="C76" s="1" t="s">
         <v>17</v>
       </c>
@@ -3364,9 +3364,9 @@
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
       <c r="C77" s="1" t="s">
         <v>18</v>
       </c>
@@ -3398,9 +3398,9 @@
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
       <c r="C78" s="1" t="s">
         <v>19</v>
       </c>
@@ -3432,9 +3432,9 @@
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
       <c r="C79" s="1" t="s">
         <v>20</v>
       </c>
@@ -3461,7 +3461,7 @@
         <f t="shared" si="18"/>
         <v>2480.585</v>
       </c>
-      <c r="K79" s="4">
+      <c r="K79" s="3">
         <f>AVERAGE(J69,J74,J79,J84,J89,J94)</f>
         <v>2626.0883333333336</v>
       </c>
@@ -3473,7 +3473,7 @@
         <f>SUM(L75:L79)</f>
         <v>6.7239710865145699E-2</v>
       </c>
-      <c r="N79" s="4">
+      <c r="N79" s="3">
         <f>AVERAGE(M69,M74,M79,M84,M89,M94)</f>
         <v>7.1183781341766436E-2</v>
       </c>
@@ -3481,9 +3481,9 @@
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2" t="s">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -3512,7 +3512,7 @@
         <v>3.817325502597696E-2</v>
       </c>
       <c r="M80" s="1"/>
-      <c r="N80" s="4">
+      <c r="N80" s="3">
         <f>STDEV(M69,M74,M79,M84,M89,M94)/6^0.5</f>
         <v>7.2574205451428489E-3</v>
       </c>
@@ -3520,9 +3520,9 @@
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
       <c r="C81" s="1" t="s">
         <v>17</v>
       </c>
@@ -3554,9 +3554,9 @@
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
       <c r="C82" s="1" t="s">
         <v>18</v>
       </c>
@@ -3588,9 +3588,9 @@
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
       <c r="C83" s="1" t="s">
         <v>19</v>
       </c>
@@ -3622,9 +3622,9 @@
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
       <c r="C84" s="1" t="s">
         <v>20</v>
       </c>
@@ -3665,9 +3665,9 @@
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2" t="s">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C85" s="1" t="s">
@@ -3701,9 +3701,9 @@
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
       <c r="C86" s="1" t="s">
         <v>17</v>
       </c>
@@ -3735,9 +3735,9 @@
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
       <c r="C87" s="1" t="s">
         <v>18</v>
       </c>
@@ -3769,9 +3769,9 @@
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
       <c r="C88" s="1" t="s">
         <v>19</v>
       </c>
@@ -3803,9 +3803,9 @@
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
       <c r="C89" s="1" t="s">
         <v>20</v>
       </c>
@@ -3846,9 +3846,9 @@
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2" t="s">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C90" s="1" t="s">
@@ -3882,9 +3882,9 @@
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
       <c r="C91" s="1" t="s">
         <v>17</v>
       </c>
@@ -3916,9 +3916,9 @@
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
       <c r="C92" s="1" t="s">
         <v>18</v>
       </c>
@@ -3950,9 +3950,9 @@
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
       <c r="C93" s="1" t="s">
         <v>19</v>
       </c>
@@ -3984,9 +3984,9 @@
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
       <c r="C94" s="1" t="s">
         <v>20</v>
       </c>
@@ -4029,19 +4029,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="B80:B84"/>
-    <mergeCell ref="B85:B89"/>
-    <mergeCell ref="B90:B94"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="A35:A64"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="B50:B54"/>
-    <mergeCell ref="B55:B59"/>
-    <mergeCell ref="B60:B64"/>
     <mergeCell ref="A65:A94"/>
     <mergeCell ref="B65:B69"/>
     <mergeCell ref="B70:B74"/>
@@ -4051,6 +4038,19 @@
     <mergeCell ref="B15:B19"/>
     <mergeCell ref="B20:B24"/>
     <mergeCell ref="B25:B29"/>
+    <mergeCell ref="A35:A64"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="B50:B54"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="B80:B84"/>
+    <mergeCell ref="B85:B89"/>
+    <mergeCell ref="B90:B94"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="B30:B34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4060,16 +4060,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F99C29A6-CFA7-4F7C-A82A-0427B4494A4E}">
   <dimension ref="A2:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24.453125" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -4077,7 +4077,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
